--- a/self_practice/homework_1.xlsx
+++ b/self_practice/homework_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\VSCode\DS_project\self_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776AE783-0E81-4E7F-B170-23C8159C5CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30121275-DBBF-46CA-8DFA-02E3A53C2A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>Index</t>
+  </si>
   <si>
     <t>Title</t>
   </si>
@@ -28,6 +31,12 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Mỹ phá ổ lừa đảo bitcoin 15 tỷ USD lớn nhất lịch sử: 'Nhân vật hàng đầu của năm' của Campuchia sắp vào tù</t>
+  </si>
+  <si>
+    <t>https://cafef.vn/my-pha-o-lua-dao-bitcoin-15-ty-usd-lon-nhat-lich-su-nhan-vat-hang-dau-cua-nam-cua-campuchia-sap-vao-tu-188251015131553303.chn</t>
+  </si>
+  <si>
     <t>Biểu tượng trăm tuổi của ngành ô tô Mỹ thiệt hại 1,6 tỷ USD vì làm xe điện, Trung Quốc không còn là nơi 'gà đẻ trứng vàng'</t>
   </si>
   <si>
@@ -140,12 +149,6 @@
   </si>
   <si>
     <t>https://cafef.vn/thuong-chien-my-trung-leo-thang-chien-truong-moi-tren-bien-nong-ruc-tu-hom-nay-188251014185559154.chn</t>
-  </si>
-  <si>
-    <t>Thảm họa mỏ than Senghenydd: Bi kịch kinh hoàng nhất trong lịch sử ngành khai thác than Anh Quốc</t>
-  </si>
-  <si>
-    <t>https://cafef.vn/tham-hoa-mo-than-senghenydd-bi-kich-kinh-hoang-nhat-trong-lich-su-nganh-khai-thac-than-anh-quoc-188251014170046688.chn</t>
   </si>
 </sst>
 </file>
@@ -201,10 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,184 +514,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="140.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="140.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C9" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C10" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C11" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C12" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C14" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C15" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C17" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C18" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C19" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C20" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
